--- a/Project/datatype_1026.xlsx
+++ b/Project/datatype_1026.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcfst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\big_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22776" windowHeight="3252" xr2:uid="{CFE8177F-206D-4652-941E-CF7B5865BEF5}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14595" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>fecha_dato</t>
   </si>
@@ -56,158 +59,178 @@
     <t>age</t>
   </si>
   <si>
-    <t>smallint</t>
-  </si>
-  <si>
     <t>fecha_alta</t>
   </si>
   <si>
     <t>ind_nuevo</t>
   </si>
   <si>
-    <t>tinyint</t>
+    <t>ult_fec_cli_1t</t>
+  </si>
+  <si>
+    <t>indrel_1mes</t>
+  </si>
+  <si>
+    <t>tiprel_1mes</t>
+  </si>
+  <si>
+    <t>indresi</t>
+  </si>
+  <si>
+    <t>indext</t>
+  </si>
+  <si>
+    <t>conyuemp</t>
+  </si>
+  <si>
+    <t>canal_entrada</t>
+  </si>
+  <si>
+    <t>nchar(3)</t>
+  </si>
+  <si>
+    <t>indfall</t>
+  </si>
+  <si>
+    <t>tipodom</t>
+  </si>
+  <si>
+    <t>cod_prov</t>
+  </si>
+  <si>
+    <t>nomprov</t>
+  </si>
+  <si>
+    <t>nchar(24)</t>
+  </si>
+  <si>
+    <t>ind_actividad_cliente</t>
+  </si>
+  <si>
+    <t>renta</t>
+  </si>
+  <si>
+    <t>decimal(10, 2)</t>
+  </si>
+  <si>
+    <t>segmento</t>
+  </si>
+  <si>
+    <t>nchar(18)</t>
+  </si>
+  <si>
+    <t>ind_ahor_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_aval_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_cco_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_cder_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_cno_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_ctju_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_ctma_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_ctop_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_ctpp_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_deco_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_deme_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_dela_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_ecue_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_fond_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_hip_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_plan_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_pres_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_reca_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_tjcr_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_valo_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_viv_fin_ult1</t>
+  </si>
+  <si>
+    <t>ind_nomina_ult1</t>
+  </si>
+  <si>
+    <t>ind_nom_pens_ult1</t>
+  </si>
+  <si>
+    <t>ind_recibo_ult1</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>antiguedad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>indrel</t>
-  </si>
-  <si>
-    <t>ult_fec_cli_1t</t>
-  </si>
-  <si>
-    <t>indrel_1mes</t>
-  </si>
-  <si>
-    <t>tiprel_1mes</t>
-  </si>
-  <si>
-    <t>indresi</t>
-  </si>
-  <si>
-    <t>indext</t>
-  </si>
-  <si>
-    <t>conyuemp</t>
-  </si>
-  <si>
-    <t>canal_entrada</t>
-  </si>
-  <si>
-    <t>nchar(3)</t>
-  </si>
-  <si>
-    <t>indfall</t>
-  </si>
-  <si>
-    <t>tipodom</t>
-  </si>
-  <si>
-    <t>cod_prov</t>
-  </si>
-  <si>
-    <t>nomprov</t>
-  </si>
-  <si>
-    <t>nchar(24)</t>
-  </si>
-  <si>
-    <t>ind_actividad_cliente</t>
-  </si>
-  <si>
-    <t>renta</t>
-  </si>
-  <si>
-    <t>decimal(10, 2)</t>
-  </si>
-  <si>
-    <t>segmento</t>
-  </si>
-  <si>
-    <t>nchar(18)</t>
-  </si>
-  <si>
-    <t>ind_ahor_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_aval_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_cco_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_cder_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_cno_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_ctju_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_ctma_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_ctop_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_ctpp_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_deco_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_deme_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_dela_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_ecue_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_fond_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_hip_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_plan_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_pres_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_reca_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_tjcr_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_valo_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_viv_fin_ult1</t>
-  </si>
-  <si>
-    <t>ind_nomina_ult1</t>
-  </si>
-  <si>
-    <t>ind_nom_pens_ult1</t>
-  </si>
-  <si>
-    <t>ind_recibo_ult1</t>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -225,12 +248,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,8 +276,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,21 +599,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE85A085-B44B-449B-BB8A-3C4A7339A09B}">
-  <dimension ref="A2:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -589,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -600,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -611,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -622,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -633,23 +668,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -658,51 +690,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -711,9 +734,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -722,9 +745,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -733,9 +756,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -744,9 +767,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -755,9 +778,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -766,20 +789,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -788,340 +811,331 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
